--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Arithmetic Operators, Comparison Operators, Logical Operators</t>
+  </si>
+  <si>
+    <t>Strings, while loop, do-while loop</t>
   </si>
 </sst>
 </file>
@@ -313,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -331,7 +334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,7 +1283,7 @@
       <c r="C53" s="3">
         <v>45338</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="15" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1310,24 +1312,28 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
+      <c r="A56" s="5"/>
       <c r="B56" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C56" s="3">
         <v>45341</v>
       </c>
-      <c r="D56" s="2"/>
+      <c r="D56" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C57" s="3">
         <v>45342</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="15" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>Strings, while loop, do-while loop</t>
+  </si>
+  <si>
+    <t>Types of for loop, Types of functions</t>
   </si>
 </sst>
 </file>
@@ -616,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,14 +1339,16 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
+      <c r="A58" s="4"/>
       <c r="B58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C58" s="3">
         <v>45343</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="15" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>Types of for loop, Types of functions</t>
+  </si>
+  <si>
+    <t>Arrow function, Callback function</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1351,14 +1354,16 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
+      <c r="A59" s="4"/>
       <c r="B59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C59" s="3">
         <v>45344</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
   <si>
     <t>Class Status</t>
   </si>
@@ -196,13 +196,19 @@
   </si>
   <si>
     <t>Nested Objects, Constructor Function, Class</t>
+  </si>
+  <si>
+    <t>Introduction to TypeScript, RunTime Environment</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,8 +235,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +291,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -352,11 +383,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -427,6 +486,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -736,8 +812,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,10 +908,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
@@ -849,8 +925,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -1708,27 +1786,31 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="19"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="9">
         <v>45349</v>
       </c>
-      <c r="D64" s="8"/>
+      <c r="D64" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="19"/>
+      <c r="A65" s="27"/>
       <c r="B65" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="9">
         <v>45350</v>
       </c>
-      <c r="D65" s="8"/>
+      <c r="D65" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -2803,5 +2885,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="61">
   <si>
     <t>Class Status</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Installation of node, Installation of typeScript</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1816,14 +1819,16 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="19"/>
+      <c r="A66" s="27"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="9">
         <v>45351</v>
       </c>
-      <c r="D66" s="8"/>
+      <c r="D66" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
   <si>
     <t>Class Status</t>
   </si>
@@ -204,7 +204,10 @@
     <t>TypeScript</t>
   </si>
   <si>
-    <t>Installation of node, Installation of typeScript</t>
+    <t>TypeScript Configuration, Compilation Target version, Compilation of .ts file</t>
+  </si>
+  <si>
+    <t>Installation of Node, Installation of TypeScript</t>
   </si>
 </sst>
 </file>
@@ -816,7 +819,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -824,7 +827,7 @@
     <col min="1" max="1" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.6640625" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.5546875" style="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -1827,47 +1830,53 @@
         <v>45351</v>
       </c>
       <c r="D66" s="32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="19"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C67" s="9">
         <v>45352</v>
       </c>
-      <c r="D67" s="8"/>
+      <c r="D67" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="19"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C68" s="9">
         <v>45353</v>
       </c>
-      <c r="D68" s="8"/>
+      <c r="D68" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="19"/>
+      <c r="A69" s="27"/>
       <c r="B69" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="9">
         <v>45354</v>
       </c>
-      <c r="D69" s="8"/>
+      <c r="D69" s="32" t="s">
+        <v>60</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="63">
   <si>
     <t>Class Status</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>Installation of Node, Installation of TypeScript</t>
+  </si>
+  <si>
+    <t>DataTypes in TS, Return types of functions</t>
   </si>
 </sst>
 </file>
@@ -819,7 +822,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,14 +1885,16 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="19"/>
+      <c r="A70" s="27"/>
       <c r="B70" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C70" s="9">
         <v>45355</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="64">
   <si>
     <t>Class Status</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>DataTypes in TS, Return types of functions</t>
+  </si>
+  <si>
+    <t>Loops, Array, Tuple, Object, Enum, Union, Class</t>
   </si>
 </sst>
 </file>
@@ -822,7 +825,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,14 +1903,16 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="19"/>
+      <c r="A71" s="27"/>
       <c r="B71" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C71" s="9">
         <v>45356</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="32" t="s">
+        <v>63</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
   <si>
     <t>Class Status</t>
   </si>
@@ -825,7 +825,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1931,14 +1931,16 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="19"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="9">
         <v>45358</v>
       </c>
-      <c r="D73" s="8"/>
+      <c r="D73" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
   <si>
     <t>Class Status</t>
   </si>
@@ -825,7 +825,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,14 +1972,16 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="19"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C76" s="9">
         <v>45361</v>
       </c>
-      <c r="D76" s="8"/>
+      <c r="D76" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
   <si>
     <t>Class Status</t>
   </si>
@@ -825,7 +825,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,14 +2000,16 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="19"/>
+      <c r="A78" s="26"/>
       <c r="B78" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C78" s="9">
         <v>45363</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
   <si>
     <t>Class Status</t>
   </si>
@@ -824,8 +824,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2015,27 +2015,31 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="19"/>
+      <c r="A79" s="26"/>
       <c r="B79" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="9">
         <v>45364</v>
       </c>
-      <c r="D79" s="8"/>
+      <c r="D79" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="19"/>
+      <c r="A80" s="26"/>
       <c r="B80" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="9">
         <v>45365</v>
       </c>
-      <c r="D80" s="8"/>
+      <c r="D80" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
   <si>
     <t>Class Status</t>
   </si>
@@ -825,7 +825,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,14 +2045,16 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="19"/>
+      <c r="A81" s="26"/>
       <c r="B81" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C81" s="9">
         <v>45366</v>
       </c>
-      <c r="D81" s="8"/>
+      <c r="D81" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="69">
   <si>
     <t>Class Status</t>
   </si>
@@ -214,13 +214,28 @@
   </si>
   <si>
     <t>Loops, Array, Tuple, Object, Enum, Union, Class</t>
+  </si>
+  <si>
+    <t>JavaScript/TypeScript Test</t>
+  </si>
+  <si>
+    <t>Overriding, Overloading, interfaces, modeules</t>
+  </si>
+  <si>
+    <t>OOPS, Inheritance, Access Modifiers</t>
+  </si>
+  <si>
+    <t>Angular CLI installation</t>
+  </si>
+  <si>
+    <t>Angular</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,8 +269,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -318,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -517,6 +544,13 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -824,8 +858,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -954,8 +988,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="F7" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -1918,14 +1954,16 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
+      <c r="A72" s="27"/>
       <c r="B72" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="9">
         <v>45357</v>
       </c>
-      <c r="D72" s="8"/>
+      <c r="D72" s="32" t="s">
+        <v>66</v>
+      </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -1946,27 +1984,31 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="19"/>
+      <c r="A74" s="27"/>
       <c r="B74" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="9">
         <v>45359</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="32" t="s">
+        <v>65</v>
+      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="19"/>
+      <c r="A75" s="27"/>
       <c r="B75" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C75" s="9">
         <v>45360</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="32" t="s">
+        <v>64</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -1987,14 +2029,16 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="19"/>
+      <c r="A77" s="27"/>
       <c r="B77" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="9">
         <v>45362</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="33" t="s">
+        <v>67</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
   <si>
     <t>Class Status</t>
   </si>
@@ -271,7 +271,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -344,7 +343,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,13 +543,13 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,8 +857,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,10 +987,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -2036,7 +2035,7 @@
       <c r="C77" s="9">
         <v>45362</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="35" t="s">
         <v>67</v>
       </c>
       <c r="E77" s="4"/>
@@ -2104,14 +2103,16 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="19"/>
+      <c r="A82" s="26"/>
       <c r="B82" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C82" s="9">
         <v>45367</v>
       </c>
-      <c r="D82" s="8"/>
+      <c r="D82" s="15" t="s">
+        <v>15</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="69">
   <si>
     <t>Class Status</t>
   </si>
@@ -348,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -449,11 +449,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -547,7 +560,43 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -858,7 +907,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,14 +2047,14 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
-      <c r="B75" s="8" t="s">
+      <c r="A75" s="35"/>
+      <c r="B75" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="36">
         <v>45360</v>
       </c>
-      <c r="D75" s="32" t="s">
+      <c r="D75" s="37" t="s">
         <v>64</v>
       </c>
       <c r="E75" s="4"/>
@@ -2013,14 +2062,14 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="8" t="s">
+      <c r="A76" s="40"/>
+      <c r="B76" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="42">
         <v>45361</v>
       </c>
-      <c r="D76" s="15" t="s">
+      <c r="D76" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="4"/>
@@ -2028,14 +2077,14 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="27"/>
-      <c r="B77" s="8" t="s">
+      <c r="A77" s="44"/>
+      <c r="B77" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="42">
         <v>45362</v>
       </c>
-      <c r="D77" s="35" t="s">
+      <c r="D77" s="45" t="s">
         <v>67</v>
       </c>
       <c r="E77" s="4"/>
@@ -2043,14 +2092,14 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
-      <c r="B78" s="8" t="s">
+      <c r="A78" s="40"/>
+      <c r="B78" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="42">
         <v>45363</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E78" s="4"/>
@@ -2058,14 +2107,14 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
-      <c r="B79" s="8" t="s">
+      <c r="A79" s="40"/>
+      <c r="B79" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="42">
         <v>45364</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="4"/>
@@ -2073,14 +2122,14 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
-      <c r="B80" s="8" t="s">
+      <c r="A80" s="40"/>
+      <c r="B80" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="42">
         <v>45365</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="4"/>
@@ -2088,14 +2137,14 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="8" t="s">
+      <c r="A81" s="40"/>
+      <c r="B81" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="42">
         <v>45366</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E81" s="4"/>
@@ -2103,14 +2152,14 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
-      <c r="B82" s="8" t="s">
+      <c r="A82" s="40"/>
+      <c r="B82" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="42">
         <v>45367</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="43" t="s">
         <v>15</v>
       </c>
       <c r="E82" s="4"/>
@@ -2118,14 +2167,16 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="19"/>
-      <c r="B83" s="8" t="s">
+      <c r="A83" s="47"/>
+      <c r="B83" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="39">
         <v>45368</v>
       </c>
-      <c r="D83" s="8"/>
+      <c r="D83" s="46" t="s">
+        <v>15</v>
+      </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="70">
   <si>
     <t>Class Status</t>
   </si>
@@ -229,13 +229,16 @@
   </si>
   <si>
     <t>Angular</t>
+  </si>
+  <si>
+    <t>Angular component folder structure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +274,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -590,13 +599,13 @@
     <xf numFmtId="3" fontId="2" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -907,7 +916,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2084,7 +2093,7 @@
       <c r="C77" s="42">
         <v>45362</v>
       </c>
-      <c r="D77" s="45" t="s">
+      <c r="D77" s="47" t="s">
         <v>67</v>
       </c>
       <c r="E77" s="4"/>
@@ -2167,14 +2176,14 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="47"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="38" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="39">
         <v>45368</v>
       </c>
-      <c r="D83" s="46" t="s">
+      <c r="D83" s="45" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="4"/>
@@ -2182,14 +2191,16 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="19"/>
+      <c r="A84" s="27"/>
       <c r="B84" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="9">
         <v>45369</v>
       </c>
-      <c r="D84" s="8"/>
+      <c r="D84" s="47" t="s">
+        <v>69</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="71">
   <si>
     <t>Class Status</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>Angular component folder structure</t>
+  </si>
+  <si>
+    <t>First component created</t>
   </si>
 </sst>
 </file>
@@ -916,7 +919,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2206,14 +2209,16 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="19"/>
+      <c r="A85" s="27"/>
       <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="9">
         <v>45370</v>
       </c>
-      <c r="D85" s="8"/>
+      <c r="D85" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="71">
   <si>
     <t>Class Status</t>
   </si>
@@ -919,7 +919,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2224,14 +2224,16 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="19"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="9">
         <v>45371</v>
       </c>
-      <c r="D86" s="8"/>
+      <c r="D86" s="45" t="s">
+        <v>15</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
   <si>
     <t>Class Status</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>First component created</t>
+  </si>
+  <si>
+    <t>Data Binding</t>
   </si>
 </sst>
 </file>
@@ -919,7 +922,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2239,14 +2242,16 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="19"/>
+      <c r="A87" s="27"/>
       <c r="B87" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="9">
         <v>45372</v>
       </c>
-      <c r="D87" s="8"/>
+      <c r="D87" s="47" t="s">
+        <v>71</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="72">
   <si>
     <t>Class Status</t>
   </si>
@@ -921,8 +921,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2257,14 +2257,16 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="19"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="9">
         <v>45373</v>
       </c>
-      <c r="D88" s="8"/>
+      <c r="D88" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
   <si>
     <t>Class Status</t>
   </si>
@@ -922,7 +922,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -930,7 +930,7 @@
     <col min="1" max="1" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.5546875" style="24" bestFit="1" customWidth="1"/>
   </cols>
@@ -2285,14 +2285,16 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="9">
         <v>45375</v>
       </c>
-      <c r="D90" s="8"/>
+      <c r="D90" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="72">
   <si>
     <t>Class Status</t>
   </si>
@@ -922,7 +922,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2300,14 +2300,16 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="19"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="9">
         <v>45376</v>
       </c>
-      <c r="D91" s="8"/>
+      <c r="D91" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="72">
   <si>
     <t>Class Status</t>
   </si>
@@ -922,7 +922,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2315,14 +2315,16 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="19"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C92" s="9">
         <v>45377</v>
       </c>
-      <c r="D92" s="8"/>
+      <c r="D92" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -3030,9 +3032,7 @@
       <c r="G146" s="4"/>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="20">
-        <v>1</v>
-      </c>
+      <c r="A147" s="20"/>
       <c r="B147" s="8" t="s">
         <v>18</v>
       </c>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="72">
   <si>
     <t>Class Status</t>
   </si>
@@ -922,7 +922,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,14 +2343,16 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="19"/>
+      <c r="A94" s="26"/>
       <c r="B94" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="9">
         <v>45379</v>
       </c>
-      <c r="D94" s="8"/>
+      <c r="D94" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -234,10 +234,13 @@
     <t>Angular component folder structure</t>
   </si>
   <si>
-    <t>First component created</t>
-  </si>
-  <si>
-    <t>Data Binding</t>
+    <t>Data Binding (Interpolation, Event Binding)</t>
+  </si>
+  <si>
+    <t>Data Binding (Property Binding)</t>
+  </si>
+  <si>
+    <t>Angular Create new component</t>
   </si>
 </sst>
 </file>
@@ -922,7 +925,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2220,7 +2223,7 @@
         <v>45370</v>
       </c>
       <c r="D85" s="47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -2250,7 +2253,7 @@
         <v>45372</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -2272,29 +2275,29 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="19"/>
+      <c r="A89" s="27"/>
       <c r="B89" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="9">
         <v>45374</v>
       </c>
-      <c r="D89" s="8"/>
+      <c r="D89" s="47" t="s">
+        <v>71</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
+      <c r="A90" s="19"/>
       <c r="B90" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="9">
         <v>45375</v>
       </c>
-      <c r="D90" s="43" t="s">
-        <v>15</v>
-      </c>
+      <c r="D90" s="43"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -924,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2361,14 +2361,16 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="19"/>
+      <c r="A95" s="26"/>
       <c r="B95" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="9">
         <v>45380</v>
       </c>
-      <c r="D95" s="8"/>
+      <c r="D95" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -924,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2376,27 +2376,31 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="19"/>
+      <c r="A96" s="26"/>
       <c r="B96" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="9">
         <v>45381</v>
       </c>
-      <c r="D96" s="8"/>
+      <c r="D96" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="19"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="9">
         <v>45382</v>
       </c>
-      <c r="D97" s="8"/>
+      <c r="D97" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -924,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,14 +2432,16 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="19"/>
+      <c r="A100" s="26"/>
       <c r="B100" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C100" s="9">
         <v>45385</v>
       </c>
-      <c r="D100" s="8"/>
+      <c r="D100" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -924,8 +924,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2460,14 +2460,16 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="19"/>
+      <c r="A102" s="26"/>
       <c r="B102" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="9">
         <v>45387</v>
       </c>
-      <c r="D102" s="8"/>
+      <c r="D102" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -925,7 +925,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2514,14 +2514,16 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="19"/>
+      <c r="A106" s="26"/>
       <c r="B106" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C106" s="9">
         <v>45391</v>
       </c>
-      <c r="D106" s="8"/>
+      <c r="D106" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -925,7 +925,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2555,14 +2555,16 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="19"/>
+      <c r="A109" s="26"/>
       <c r="B109" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="9">
         <v>45394</v>
       </c>
-      <c r="D109" s="8"/>
+      <c r="D109" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -925,7 +925,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2609,14 +2609,16 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="19"/>
+      <c r="A113" s="26"/>
       <c r="B113" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="9">
         <v>45398</v>
       </c>
-      <c r="D113" s="8"/>
+      <c r="D113" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -247,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +291,14 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -484,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -615,6 +623,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -924,8 +935,8 @@
   </sheetPr>
   <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D114" sqref="D114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2290,14 +2301,16 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="19"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="9">
         <v>45375</v>
       </c>
-      <c r="D90" s="43"/>
+      <c r="D90" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -2488,27 +2501,31 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="19"/>
+      <c r="A104" s="26"/>
       <c r="B104" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="9">
         <v>45389</v>
       </c>
-      <c r="D104" s="8"/>
+      <c r="D104" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="19"/>
+      <c r="A105" s="26"/>
       <c r="B105" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C105" s="9">
         <v>45390</v>
       </c>
-      <c r="D105" s="8"/>
+      <c r="D105" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -2583,14 +2600,16 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="19"/>
+      <c r="A111" s="26"/>
       <c r="B111" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="9">
         <v>45396</v>
       </c>
-      <c r="D111" s="8"/>
+      <c r="D111" s="48" t="s">
+        <v>15</v>
+      </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -936,7 +936,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,14 +2669,16 @@
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="19"/>
+      <c r="A116" s="26"/>
       <c r="B116" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="9">
         <v>45401</v>
       </c>
-      <c r="D116" s="8"/>
+      <c r="D116" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -936,7 +936,7 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2814,14 +2814,16 @@
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="19"/>
+      <c r="A127" s="26"/>
       <c r="B127" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C127" s="9">
         <v>45412</v>
       </c>
-      <c r="D127" s="8"/>
+      <c r="D127" s="43" t="s">
+        <v>15</v>
+      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -492,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -548,9 +548,6 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -626,6 +623,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -933,20 +939,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D158" sqref="D158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1031,10 +1037,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
@@ -1048,10 +1054,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="31"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
@@ -1065,10 +1071,10 @@
         <v>19</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="33" t="s">
+      <c r="F7" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
@@ -1873,7 +1879,7 @@
       <c r="C61" s="9">
         <v>45346</v>
       </c>
-      <c r="D61" s="25" t="s">
+      <c r="D61" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E61" s="4"/>
@@ -1903,7 +1909,7 @@
       <c r="C63" s="9">
         <v>45348</v>
       </c>
-      <c r="D63" s="25" t="s">
+      <c r="D63" s="24" t="s">
         <v>57</v>
       </c>
       <c r="E63" s="4"/>
@@ -1911,7 +1917,7 @@
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="8" t="s">
         <v>20</v>
       </c>
@@ -1926,14 +1932,14 @@
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="27"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="9">
         <v>45350</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" s="31" t="s">
         <v>58</v>
       </c>
       <c r="E65" s="4"/>
@@ -1941,14 +1947,14 @@
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="9">
         <v>45351</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" s="31" t="s">
         <v>61</v>
       </c>
       <c r="E66" s="4"/>
@@ -1956,7 +1962,7 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="8" t="s">
         <v>11</v>
       </c>
@@ -1971,7 +1977,7 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="8" t="s">
         <v>14</v>
       </c>
@@ -1986,14 +1992,14 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C69" s="9">
         <v>45354</v>
       </c>
-      <c r="D69" s="32" t="s">
+      <c r="D69" s="31" t="s">
         <v>60</v>
       </c>
       <c r="E69" s="4"/>
@@ -2001,14 +2007,14 @@
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C70" s="9">
         <v>45355</v>
       </c>
-      <c r="D70" s="32" t="s">
+      <c r="D70" s="31" t="s">
         <v>62</v>
       </c>
       <c r="E70" s="4"/>
@@ -2016,14 +2022,14 @@
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C71" s="9">
         <v>45356</v>
       </c>
-      <c r="D71" s="32" t="s">
+      <c r="D71" s="31" t="s">
         <v>63</v>
       </c>
       <c r="E71" s="4"/>
@@ -2031,14 +2037,14 @@
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="9">
         <v>45357</v>
       </c>
-      <c r="D72" s="32" t="s">
+      <c r="D72" s="31" t="s">
         <v>66</v>
       </c>
       <c r="E72" s="4"/>
@@ -2046,7 +2052,7 @@
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="8" t="s">
         <v>8</v>
       </c>
@@ -2061,14 +2067,14 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C74" s="9">
         <v>45359</v>
       </c>
-      <c r="D74" s="32" t="s">
+      <c r="D74" s="31" t="s">
         <v>65</v>
       </c>
       <c r="E74" s="4"/>
@@ -2076,14 +2082,14 @@
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="35"/>
-      <c r="B75" s="28" t="s">
+      <c r="A75" s="34"/>
+      <c r="B75" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C75" s="36">
+      <c r="C75" s="35">
         <v>45360</v>
       </c>
-      <c r="D75" s="37" t="s">
+      <c r="D75" s="36" t="s">
         <v>64</v>
       </c>
       <c r="E75" s="4"/>
@@ -2091,14 +2097,14 @@
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="41" t="s">
+      <c r="A76" s="39"/>
+      <c r="B76" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C76" s="42">
+      <c r="C76" s="41">
         <v>45361</v>
       </c>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="4"/>
@@ -2106,14 +2112,14 @@
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="41" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="41">
         <v>45362</v>
       </c>
-      <c r="D77" s="47" t="s">
+      <c r="D77" s="46" t="s">
         <v>67</v>
       </c>
       <c r="E77" s="4"/>
@@ -2121,14 +2127,14 @@
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="41" t="s">
+      <c r="A78" s="39"/>
+      <c r="B78" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="42">
+      <c r="C78" s="41">
         <v>45363</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E78" s="4"/>
@@ -2136,14 +2142,14 @@
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
-      <c r="B79" s="41" t="s">
+      <c r="A79" s="39"/>
+      <c r="B79" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="41">
         <v>45364</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E79" s="4"/>
@@ -2151,14 +2157,14 @@
       <c r="G79" s="4"/>
     </row>
     <row r="80" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
-      <c r="B80" s="41" t="s">
+      <c r="A80" s="39"/>
+      <c r="B80" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C80" s="42">
+      <c r="C80" s="41">
         <v>45365</v>
       </c>
-      <c r="D80" s="43" t="s">
+      <c r="D80" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E80" s="4"/>
@@ -2166,14 +2172,14 @@
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
-      <c r="B81" s="41" t="s">
+      <c r="A81" s="39"/>
+      <c r="B81" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C81" s="42">
+      <c r="C81" s="41">
         <v>45366</v>
       </c>
-      <c r="D81" s="43" t="s">
+      <c r="D81" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E81" s="4"/>
@@ -2181,14 +2187,14 @@
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
-      <c r="B82" s="41" t="s">
+      <c r="A82" s="39"/>
+      <c r="B82" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C82" s="42">
+      <c r="C82" s="41">
         <v>45367</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D82" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E82" s="4"/>
@@ -2196,14 +2202,14 @@
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="46"/>
-      <c r="B83" s="38" t="s">
+      <c r="A83" s="45"/>
+      <c r="B83" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="38">
         <v>45368</v>
       </c>
-      <c r="D83" s="45" t="s">
+      <c r="D83" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="4"/>
@@ -2211,14 +2217,14 @@
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="27"/>
+      <c r="A84" s="26"/>
       <c r="B84" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C84" s="9">
         <v>45369</v>
       </c>
-      <c r="D84" s="47" t="s">
+      <c r="D84" s="46" t="s">
         <v>69</v>
       </c>
       <c r="E84" s="4"/>
@@ -2226,14 +2232,14 @@
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="27"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C85" s="9">
         <v>45370</v>
       </c>
-      <c r="D85" s="47" t="s">
+      <c r="D85" s="46" t="s">
         <v>72</v>
       </c>
       <c r="E85" s="4"/>
@@ -2241,14 +2247,14 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="26"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C86" s="9">
         <v>45371</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="D86" s="44" t="s">
         <v>15</v>
       </c>
       <c r="E86" s="4"/>
@@ -2256,14 +2262,14 @@
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="27"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="9">
         <v>45372</v>
       </c>
-      <c r="D87" s="47" t="s">
+      <c r="D87" s="46" t="s">
         <v>70</v>
       </c>
       <c r="E87" s="4"/>
@@ -2271,14 +2277,14 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="26"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="9">
         <v>45373</v>
       </c>
-      <c r="D88" s="43" t="s">
+      <c r="D88" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E88" s="4"/>
@@ -2286,14 +2292,14 @@
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="27"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="9">
         <v>45374</v>
       </c>
-      <c r="D89" s="47" t="s">
+      <c r="D89" s="46" t="s">
         <v>71</v>
       </c>
       <c r="E89" s="4"/>
@@ -2301,14 +2307,14 @@
       <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="9">
         <v>45375</v>
       </c>
-      <c r="D90" s="43" t="s">
+      <c r="D90" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="4"/>
@@ -2316,14 +2322,14 @@
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="26"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C91" s="9">
         <v>45376</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E91" s="4"/>
@@ -2331,14 +2337,14 @@
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="26"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C92" s="9">
         <v>45377</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E92" s="4"/>
@@ -2359,14 +2365,14 @@
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="26"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="9">
         <v>45379</v>
       </c>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E94" s="4"/>
@@ -2374,14 +2380,14 @@
       <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="26"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C95" s="9">
         <v>45380</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E95" s="4"/>
@@ -2389,14 +2395,14 @@
       <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="26"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C96" s="9">
         <v>45381</v>
       </c>
-      <c r="D96" s="43" t="s">
+      <c r="D96" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E96" s="4"/>
@@ -2404,14 +2410,14 @@
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="26"/>
+      <c r="A97" s="25"/>
       <c r="B97" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C97" s="9">
         <v>45382</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E97" s="4"/>
@@ -2445,14 +2451,14 @@
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="26"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C100" s="9">
         <v>45385</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="D100" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E100" s="4"/>
@@ -2473,14 +2479,14 @@
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="26"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C102" s="9">
         <v>45387</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E102" s="4"/>
@@ -2501,14 +2507,14 @@
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="26"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C104" s="9">
         <v>45389</v>
       </c>
-      <c r="D104" s="43" t="s">
+      <c r="D104" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E104" s="4"/>
@@ -2516,14 +2522,14 @@
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="26"/>
+      <c r="A105" s="25"/>
       <c r="B105" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C105" s="9">
         <v>45390</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E105" s="4"/>
@@ -2531,14 +2537,14 @@
       <c r="G105" s="4"/>
     </row>
     <row r="106" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="26"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C106" s="9">
         <v>45391</v>
       </c>
-      <c r="D106" s="43" t="s">
+      <c r="D106" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E106" s="4"/>
@@ -2572,14 +2578,14 @@
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="26"/>
+      <c r="A109" s="25"/>
       <c r="B109" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="9">
         <v>45394</v>
       </c>
-      <c r="D109" s="43" t="s">
+      <c r="D109" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E109" s="4"/>
@@ -2600,14 +2606,14 @@
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="26"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C111" s="9">
         <v>45396</v>
       </c>
-      <c r="D111" s="48" t="s">
+      <c r="D111" s="47" t="s">
         <v>15</v>
       </c>
       <c r="E111" s="4"/>
@@ -2628,14 +2634,14 @@
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="26"/>
+      <c r="A113" s="25"/>
       <c r="B113" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C113" s="9">
         <v>45398</v>
       </c>
-      <c r="D113" s="43" t="s">
+      <c r="D113" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E113" s="4"/>
@@ -2669,14 +2675,14 @@
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="26"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="8" t="s">
         <v>11</v>
       </c>
       <c r="C116" s="9">
         <v>45401</v>
       </c>
-      <c r="D116" s="43" t="s">
+      <c r="D116" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E116" s="4"/>
@@ -2814,14 +2820,14 @@
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="26"/>
+      <c r="A127" s="25"/>
       <c r="B127" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C127" s="9">
         <v>45412</v>
       </c>
-      <c r="D127" s="43" t="s">
+      <c r="D127" s="42" t="s">
         <v>15</v>
       </c>
       <c r="E127" s="4"/>
@@ -3076,17 +3082,127 @@
       <c r="G146" s="4"/>
     </row>
     <row r="147" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="20"/>
-      <c r="B147" s="8" t="s">
+      <c r="A147" s="48"/>
+      <c r="B147" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C147" s="9">
+      <c r="C147" s="35">
         <v>45432</v>
       </c>
-      <c r="D147" s="8"/>
+      <c r="D147" s="27"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="49"/>
+      <c r="B148" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C148" s="41">
+        <v>45433</v>
+      </c>
+      <c r="D148" s="50"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="49"/>
+      <c r="B149" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" s="41">
+        <v>45434</v>
+      </c>
+      <c r="D149" s="50"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="49"/>
+      <c r="B150" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="41">
+        <v>45435</v>
+      </c>
+      <c r="D150" s="50"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="49"/>
+      <c r="B151" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="41">
+        <v>45436</v>
+      </c>
+      <c r="D151" s="50"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="49"/>
+      <c r="B152" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="41">
+        <v>45437</v>
+      </c>
+      <c r="D152" s="50"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="49"/>
+      <c r="B153" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C153" s="41">
+        <v>45438</v>
+      </c>
+      <c r="D153" s="50"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="49"/>
+      <c r="B154" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="41">
+        <v>45439</v>
+      </c>
+      <c r="D154" s="50"/>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="49"/>
+      <c r="B155" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C155" s="41">
+        <v>45440</v>
+      </c>
+      <c r="D155" s="50"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="49"/>
+      <c r="B156" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" s="41">
+        <v>45441</v>
+      </c>
+      <c r="D156" s="50"/>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="49"/>
+      <c r="B157" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="41">
+        <v>45442</v>
+      </c>
+      <c r="D157" s="50"/>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="49"/>
+      <c r="B158" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="41">
+        <v>45443</v>
+      </c>
+      <c r="D158" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -939,10 +939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D158" sqref="D158"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D175" sqref="D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3204,6 +3204,176 @@
       </c>
       <c r="D158" s="50"/>
     </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="49"/>
+      <c r="B159" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="41">
+        <v>45444</v>
+      </c>
+      <c r="D159" s="50"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="49"/>
+      <c r="B160" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="41">
+        <v>45445</v>
+      </c>
+      <c r="D160" s="50"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="49"/>
+      <c r="B161" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="41">
+        <v>45446</v>
+      </c>
+      <c r="D161" s="50"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="49"/>
+      <c r="B162" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="41">
+        <v>45447</v>
+      </c>
+      <c r="D162" s="50"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="49"/>
+      <c r="B163" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="41">
+        <v>45448</v>
+      </c>
+      <c r="D163" s="50"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="49"/>
+      <c r="B164" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="41">
+        <v>45449</v>
+      </c>
+      <c r="D164" s="50"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="49"/>
+      <c r="B165" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" s="41">
+        <v>45450</v>
+      </c>
+      <c r="D165" s="50"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="49"/>
+      <c r="B166" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="41">
+        <v>45451</v>
+      </c>
+      <c r="D166" s="50"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="49"/>
+      <c r="B167" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="41">
+        <v>45452</v>
+      </c>
+      <c r="D167" s="50"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="49"/>
+      <c r="B168" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="41">
+        <v>45453</v>
+      </c>
+      <c r="D168" s="50"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="49"/>
+      <c r="B169" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C169" s="41">
+        <v>45454</v>
+      </c>
+      <c r="D169" s="50"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="49"/>
+      <c r="B170" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="41">
+        <v>45455</v>
+      </c>
+      <c r="D170" s="50"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="49"/>
+      <c r="B171" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171" s="41">
+        <v>45456</v>
+      </c>
+      <c r="D171" s="50"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="49"/>
+      <c r="B172" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" s="41">
+        <v>45457</v>
+      </c>
+      <c r="D172" s="50"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="49"/>
+      <c r="B173" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="41">
+        <v>45458</v>
+      </c>
+      <c r="D173" s="50"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="49"/>
+      <c r="B174" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174" s="41">
+        <v>45459</v>
+      </c>
+      <c r="D174" s="50"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="49"/>
+      <c r="B175" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="41">
+        <v>45460</v>
+      </c>
+      <c r="D175" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -939,10 +939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D175" sqref="D175"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C185" sqref="C185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3374,6 +3374,106 @@
       </c>
       <c r="D175" s="50"/>
     </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="49"/>
+      <c r="B176" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C176" s="41">
+        <v>45461</v>
+      </c>
+      <c r="D176" s="50"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="49"/>
+      <c r="B177" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="41">
+        <v>45462</v>
+      </c>
+      <c r="D177" s="50"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="49"/>
+      <c r="B178" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178" s="41">
+        <v>45463</v>
+      </c>
+      <c r="D178" s="50"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="49"/>
+      <c r="B179" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="41">
+        <v>45464</v>
+      </c>
+      <c r="D179" s="50"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="49"/>
+      <c r="B180" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C180" s="41">
+        <v>45465</v>
+      </c>
+      <c r="D180" s="50"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="49"/>
+      <c r="B181" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="41">
+        <v>45466</v>
+      </c>
+      <c r="D181" s="50"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="49"/>
+      <c r="B182" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" s="41">
+        <v>45467</v>
+      </c>
+      <c r="D182" s="50"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="49"/>
+      <c r="B183" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C183" s="41">
+        <v>45468</v>
+      </c>
+      <c r="D183" s="50"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="49"/>
+      <c r="B184" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="41">
+        <v>45469</v>
+      </c>
+      <c r="D184" s="50"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="49"/>
+      <c r="B185" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="41">
+        <v>45470</v>
+      </c>
+      <c r="D185" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -939,10 +939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G185"/>
+  <dimension ref="A1:G186"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C185" sqref="C185"/>
+      <selection activeCell="A185" sqref="A185:D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3474,6 +3474,16 @@
       </c>
       <c r="D185" s="50"/>
     </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="49"/>
+      <c r="B186" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" s="41">
+        <v>45471</v>
+      </c>
+      <c r="D186" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -939,10 +939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A185" sqref="A185:D186"/>
+      <selection activeCell="D187" sqref="D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3484,6 +3484,16 @@
       </c>
       <c r="D186" s="50"/>
     </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="49"/>
+      <c r="B187" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187" s="41">
+        <v>45472</v>
+      </c>
+      <c r="D187" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -939,10 +939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D187" sqref="D187"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3494,6 +3494,16 @@
       </c>
       <c r="D187" s="50"/>
     </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="49"/>
+      <c r="B188" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C188" s="41">
+        <v>45473</v>
+      </c>
+      <c r="D188" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -939,10 +939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G188"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A188" sqref="A188"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3504,6 +3504,16 @@
       </c>
       <c r="D188" s="50"/>
     </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="49"/>
+      <c r="B189" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" s="41">
+        <v>45474</v>
+      </c>
+      <c r="D189" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Course-Tracking-Sheet.xlsx
+++ b/Course-Tracking-Sheet.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="73">
   <si>
     <t>Class Status</t>
   </si>
@@ -939,10 +939,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G190"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189"/>
+      <selection activeCell="A190" sqref="A190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3514,6 +3514,16 @@
       </c>
       <c r="D189" s="50"/>
     </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="49"/>
+      <c r="B190" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C190" s="41">
+        <v>45475</v>
+      </c>
+      <c r="D190" s="50"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
